--- a/biology/Botanique/Alpinia_vittata/Alpinia_vittata.xlsx
+++ b/biology/Botanique/Alpinia_vittata/Alpinia_vittata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alpinia vittata est une espèce de plantes à fleurs du genre Alpinia et de la famille des Zingiberaceae. C'est une plante herbacée vivace originaire d'une région allant de l'Archipel Bismarck aux Îles Salomon.
-Une première description en est faite en 1873 dans le Catalogue 83 du botaniste et distributeur de plantes rares William Bull (Bull's Establishment for New and Rare Plants), installé à Chelsea, King's road, Angleterre[1]. 
+Une première description en est faite en 1873 dans le Catalogue 83 du botaniste et distributeur de plantes rares William Bull (Bull's Establishment for New and Rare Plants), installé à Chelsea, King's road, Angleterre. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante mesure jusqu'à 1 m de haut[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante mesure jusqu'à 1 m de haut.
 Ses feuilles oblongues de couleur vert foncé sont parcourues de larges rayures longitudinales blanches.
 			Feuilles.
 			Feuilles.
@@ -548,7 +562,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Alpinia vittata est originaire des îles du Pacifique.
 </t>
@@ -580,6 +596,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,7 +623,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Alpinia albolineata ?
 Alpinia sanderae Sander, (1903)
